--- a/dist/output_file.xlsx
+++ b/dist/output_file.xlsx
@@ -59,13 +59,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,6 +445,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -449,446 +464,449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡方明</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡方明</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>832.97</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>1784.94</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>156.2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0.166</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>1947.51</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.166</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>4173.24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>柑桔中树</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0.166</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>1826</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>1.917</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>22490.24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>1.917</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>48193.38</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>1.917</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>4217.4</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>1.917</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>3834</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>2.875</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>33729.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>2.875</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>72277.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>椪柑中树</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>2.875</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>12200</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>35075</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>35.2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>75.42</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>浆砌水池</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>440</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>827.2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="E21" s="4" t="n">
         <v>231617.7</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>二十三万一千六百一十七点七元</t>
+          <t>贰拾叁万壹仟陆佰壹拾柒元柒角</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -907,6 +925,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -918,215 +944,218 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号000010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：杨明学</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:000010</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:杨明学</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.269</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>3155.91</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.269</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>6762.66</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>1.299</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>15239.87</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>1.299</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>32656.86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>1.832</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>21493.02</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>1.832</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>46056.48</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="E10" s="4" t="n">
         <v>125364.8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>十二万五千三百六十四点八元</t>
+          <t>壹拾贰万伍仟叁佰陆拾肆元捌角</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1145,6 +1174,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1156,383 +1193,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号000011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：吴敌</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:000011</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:吴敌</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>1759.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>3771</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>晒场硬化</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>4000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>1759.8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>3771</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>蔬菜大棚拆迁（钢结构）</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>4500</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>有主碑坟</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>座</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>有主普坟</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>座</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>3000</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>水井</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>眼</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>给水管</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>地窖</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>座</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>800</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>2400</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>1759.8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>3771</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>绿化树木中树</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>1650</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="E18" s="4" t="n">
         <v>38842.4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>三万八千八百四十二点四元</t>
+          <t>叁万捌仟捌佰肆拾贰元肆角</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1551,6 +1591,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1562,110 +1610,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号000012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：村集体</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:000012</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:村集体</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>村集体土地补偿费</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>30.559</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>5028</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>153650.65</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="E5" s="4" t="n">
         <v>153650.65</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>十五万三千六百五十点六五元</t>
+          <t>壹拾伍万叁仟陆佰伍拾元陆角伍分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1684,6 +1735,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1695,132 +1754,135 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡方明、村集体
+          <t>户号:00002</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡方明、村集体
 （争议）</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>2.028</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>23792.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>2.028</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>50983.92</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="E6" s="4" t="n">
         <v>74776.42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>七万四千七百七十六点四二元</t>
+          <t>柒万肆仟柒佰柒拾陆元肆角贰分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1839,6 +1901,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1850,215 +1920,218 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡芳俊</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00003</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡芳俊</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.286</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>3355.35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.286</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>7190.04</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.122</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>1431.3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.122</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>3067.08</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0.122</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>268.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.122</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>244</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="E10" s="4" t="n">
         <v>15556.17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>一万五千五百五十六点一七元</t>
+          <t>壹万伍仟伍佰伍拾陆元壹角柒分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2077,6 +2150,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2088,152 +2169,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡芳胜</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00004</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡芳胜</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.118</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>1384.38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.118</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>2966.52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>柑桔中树</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.118</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>1298</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="E7" s="4" t="n">
         <v>5648.9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>五千六百四十八点九元</t>
+          <t>伍仟陆佰肆拾捌元玖角</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2252,6 +2336,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2263,341 +2355,344 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡维洪</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00005</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡维洪</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.115</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>1349.18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.115</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>2891.1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>椪柑中树</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.115</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>12200</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>1403</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>1.693</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>19862.28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>1.693</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>42562.02</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.652</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>7649.26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0.652</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>16391.28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>0.652</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>1434.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>0.652</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>1304</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>0.977</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>11462.16</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>0.977</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>24561.78</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>椪柑中树</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>0.977</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>12200</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>11919.4</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="E16" s="4" t="n">
         <v>142789.86</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>十四万二千七百八十九点八六元</t>
+          <t>壹拾肆万贰仟柒佰捌拾玖元捌角陆分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2616,6 +2711,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2627,446 +2730,449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡维林</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00006</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡维林</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>1877.12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>4022.4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>352</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0.107</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>1255.32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.107</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>2689.98</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>柑桔中树</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0.107</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>1177</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>2.102</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>24660.66</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>2.102</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>52844.28</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>土鱼塘</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>1401.42</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>7.4</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>10370.51</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>鱼损</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>2.102</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>2102</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>3.371</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>39548.57</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>3.371</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>84746.94</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>3.371</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>7416.2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>3.371</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>6742</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>4.655</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>54612.46</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>4.655</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>117026.7</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="E21" s="4" t="n">
         <v>411764.14</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>四十一万一千七百六十四点一四元</t>
+          <t>肆拾壹万壹仟柒佰陆拾肆元壹角肆分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3085,6 +3191,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3096,299 +3210,302 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：胡维洲</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00007</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:胡维洲</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.444</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>5209.01</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.444</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>11162.16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.266</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>3120.71</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.266</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>6687.24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>茶树二级</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0.266</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>7400</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>1968.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.178</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>2088.3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0.178</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>4474.92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>橙子中树</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>0.178</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>12200</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>2171.6</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>3.156</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>37026.19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>3.156</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>79341.84</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="E14" s="4" t="n">
         <v>153250.37</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>十五万三千二百五十点三七元</t>
+          <t>壹拾伍万叁仟贰佰伍拾元叁角柒分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3407,6 +3524,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3418,236 +3543,239 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：李名菊</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00008</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:李名菊</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>8212.4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>17598</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>耕地青苗费</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>2200</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>1540</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>耕地零星林木</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0.078</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>915.1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.078</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>1960.92</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>柑桔中树</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0.078</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>858</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="E11" s="4" t="n">
         <v>32484.42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>三万二千四百八十四点四二元</t>
+          <t>叁万贰仟肆佰捌拾肆元肆角贰分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3666,6 +3794,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3677,131 +3813,134 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>户号00009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>户主：王泽菊</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>住址：磨市村</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>户号:00009</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>户主:王泽菊</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>住址:磨市村</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2023年7月19日</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>小计</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>单价(元)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>小计(元)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>土地补偿费（户）</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.469</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>11732</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>5502.31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>土地安置补助费</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>亩</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>亩</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.469</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>25140</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>11790.66</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="E6" s="4" t="n">
         <v>17292.97</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>大写</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>人民币</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>一万七千二百九十二点九七元</t>
+          <t>壹万柒仟贰佰玖拾贰元玖角柒分</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
